--- a/cpeck/AEX.xlsx
+++ b/cpeck/AEX.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>bufer1</t>
   </si>
@@ -124,6 +125,18 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Посетили на машине или нет</t>
+  </si>
+  <si>
+    <t>Посетили в целом</t>
+  </si>
+  <si>
+    <t>Надо делать проверку сколько раз можно приехать к одному</t>
+  </si>
+  <si>
+    <t>научится выбирать между несколькими ребрами из кого-то</t>
   </si>
 </sst>
 </file>
@@ -159,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -167,14 +180,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -190,6 +284,176 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104774" y="57150"/>
+          <a:ext cx="1514476" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>058940124030675430</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="85725"/>
+          <a:ext cx="1371600" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>089012506470130</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371849" y="85725"/>
+          <a:ext cx="1933575" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>05047025894713064304750</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -1048,4 +1312,1588 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Y33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="P4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>6</v>
+      </c>
+      <c r="H5" s="9">
+        <v>7</v>
+      </c>
+      <c r="I5" s="9">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10">
+        <v>9</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2</v>
+      </c>
+      <c r="S5" s="9">
+        <v>3</v>
+      </c>
+      <c r="T5" s="9">
+        <v>4</v>
+      </c>
+      <c r="U5" s="9">
+        <v>5</v>
+      </c>
+      <c r="V5" s="9">
+        <v>6</v>
+      </c>
+      <c r="W5" s="9">
+        <v>7</v>
+      </c>
+      <c r="X5" s="9">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-2</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-2</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>1</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1</v>
+      </c>
+      <c r="U14" s="11">
+        <v>1</v>
+      </c>
+      <c r="V14" s="11">
+        <v>0</v>
+      </c>
+      <c r="W14" s="11">
+        <v>1</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <v>1</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0</v>
+      </c>
+      <c r="T15" s="11">
+        <v>1</v>
+      </c>
+      <c r="U15" s="11">
+        <v>1</v>
+      </c>
+      <c r="V15" s="11">
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <v>1</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0</v>
+      </c>
+      <c r="R16" s="11">
+        <v>1</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11">
+        <v>1</v>
+      </c>
+      <c r="U16" s="11">
+        <v>1</v>
+      </c>
+      <c r="V16" s="11">
+        <v>0</v>
+      </c>
+      <c r="W16" s="11">
+        <v>1</v>
+      </c>
+      <c r="X16" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>1</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1</v>
+      </c>
+      <c r="U17" s="11">
+        <v>1</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>1</v>
+      </c>
+      <c r="X17" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <v>1</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
+        <v>1</v>
+      </c>
+      <c r="U18" s="11">
+        <v>1</v>
+      </c>
+      <c r="V18" s="11">
+        <v>0</v>
+      </c>
+      <c r="W18" s="11">
+        <v>1</v>
+      </c>
+      <c r="X18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>1</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>1</v>
+      </c>
+      <c r="U19" s="11">
+        <v>1</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>1</v>
+      </c>
+      <c r="X19" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>1</v>
+      </c>
+      <c r="R20" s="11">
+        <v>1</v>
+      </c>
+      <c r="S20" s="11">
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
+        <v>1</v>
+      </c>
+      <c r="U20" s="11">
+        <v>1</v>
+      </c>
+      <c r="V20" s="11">
+        <v>0</v>
+      </c>
+      <c r="W20" s="11">
+        <v>1</v>
+      </c>
+      <c r="X20" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>1</v>
+      </c>
+      <c r="R21" s="11">
+        <v>1</v>
+      </c>
+      <c r="S21" s="11">
+        <v>1</v>
+      </c>
+      <c r="T21" s="11">
+        <v>1</v>
+      </c>
+      <c r="U21" s="11">
+        <v>1</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>1</v>
+      </c>
+      <c r="X21" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="P22" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>1</v>
+      </c>
+      <c r="R22" s="12">
+        <v>1</v>
+      </c>
+      <c r="S22" s="12">
+        <v>1</v>
+      </c>
+      <c r="T22" s="12">
+        <v>1</v>
+      </c>
+      <c r="U22" s="12">
+        <v>1</v>
+      </c>
+      <c r="V22" s="12">
+        <v>0</v>
+      </c>
+      <c r="W22" s="12">
+        <v>1</v>
+      </c>
+      <c r="X22" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>-2</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>1</v>
+      </c>
+      <c r="R23" s="11">
+        <v>1</v>
+      </c>
+      <c r="S23" s="11">
+        <v>1</v>
+      </c>
+      <c r="T23" s="11">
+        <v>1</v>
+      </c>
+      <c r="U23" s="11">
+        <v>1</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <v>1</v>
+      </c>
+      <c r="X23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>-1</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="P24" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>1</v>
+      </c>
+      <c r="R24" s="11">
+        <v>1</v>
+      </c>
+      <c r="S24" s="11">
+        <v>1</v>
+      </c>
+      <c r="T24" s="11">
+        <v>1</v>
+      </c>
+      <c r="U24" s="11">
+        <v>1</v>
+      </c>
+      <c r="V24" s="11">
+        <v>1</v>
+      </c>
+      <c r="W24" s="11">
+        <v>1</v>
+      </c>
+      <c r="X24" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>1</v>
+      </c>
+      <c r="R25" s="11">
+        <v>1</v>
+      </c>
+      <c r="S25" s="11">
+        <v>1</v>
+      </c>
+      <c r="T25" s="11">
+        <v>1</v>
+      </c>
+      <c r="U25" s="11">
+        <v>1</v>
+      </c>
+      <c r="V25" s="11">
+        <v>1</v>
+      </c>
+      <c r="W25" s="11">
+        <v>1</v>
+      </c>
+      <c r="X25" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>-1</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>1</v>
+      </c>
+      <c r="R26" s="11">
+        <v>1</v>
+      </c>
+      <c r="S26" s="11">
+        <v>1</v>
+      </c>
+      <c r="T26" s="11">
+        <v>1</v>
+      </c>
+      <c r="U26" s="11">
+        <v>1</v>
+      </c>
+      <c r="V26" s="11">
+        <v>1</v>
+      </c>
+      <c r="W26" s="11">
+        <v>1</v>
+      </c>
+      <c r="X26" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>0</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="P27" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>1</v>
+      </c>
+      <c r="R27" s="12">
+        <v>1</v>
+      </c>
+      <c r="S27" s="12">
+        <v>1</v>
+      </c>
+      <c r="T27" s="12">
+        <v>1</v>
+      </c>
+      <c r="U27" s="12">
+        <v>1</v>
+      </c>
+      <c r="V27" s="12">
+        <v>1</v>
+      </c>
+      <c r="W27" s="12">
+        <v>1</v>
+      </c>
+      <c r="X27" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>-2</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>-2</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>-2</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/cpeck/AEX.xlsx
+++ b/cpeck/AEX.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>bufer1</t>
   </si>
@@ -137,6 +137,33 @@
   </si>
   <si>
     <t>научится выбирать между несколькими ребрами из кого-то</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берем превые два города из большей </t>
+  </si>
+  <si>
+    <t>Если есть между чем вибирать то надо брать тот который еще не брали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">последовательности. Дальше ввыбора нет, </t>
+  </si>
+  <si>
+    <t>поэтому берем что есть. Это 0</t>
+  </si>
+  <si>
+    <t>Следующим шагом цикла берем рандомного кл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">и входим в рекурсию </t>
+  </si>
+  <si>
+    <t>Нужно сделать флаг что это ебро мы уже брали</t>
+  </si>
+  <si>
+    <t>ок</t>
+  </si>
+  <si>
+    <t>в самом начале надо научится выбирать именно из нуля куда-то</t>
   </si>
 </sst>
 </file>
@@ -1316,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Y33"/>
+  <dimension ref="A3:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,6 +1475,9 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -1510,6 +1540,9 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
       <c r="P7">
         <v>1</v>
       </c>
@@ -1572,7 +1605,9 @@
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="P8" s="4">
         <v>1</v>
       </c>
@@ -1635,6 +1670,9 @@
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="K9" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="P9" s="3">
         <v>1</v>
       </c>
@@ -1697,6 +1735,9 @@
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="P10" s="3">
         <v>1</v>
       </c>
@@ -2882,6 +2923,9 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
@@ -2889,6 +2933,21 @@
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/cpeck/AEX.xlsx
+++ b/cpeck/AEX.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>bufer1</t>
   </si>
@@ -164,6 +165,57 @@
   </si>
   <si>
     <t>в самом начале надо научится выбирать именно из нуля куда-то</t>
+  </si>
+  <si>
+    <t>берем кол-во скважин на каждом</t>
+  </si>
+  <si>
+    <t>добавляем одну ячейку к последовательности и ставим еденичку если из него ехать нельзя</t>
+  </si>
+  <si>
+    <t>Ребенок</t>
+  </si>
+  <si>
+    <t>flagAll</t>
+  </si>
+  <si>
+    <t>countOfRace</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>k=</t>
+  </si>
+  <si>
+    <t>j=</t>
+  </si>
+  <si>
+    <t>bufer_in</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>bufer_out</t>
+  </si>
+  <si>
+    <t>i_out</t>
+  </si>
+  <si>
+    <t>i_in</t>
+  </si>
+  <si>
+    <t>рандомные</t>
+  </si>
+  <si>
+    <t>9 -&gt; 3-&gt;5-&gt;1</t>
+  </si>
+  <si>
+    <t>нашли 2 город</t>
+  </si>
+  <si>
+    <t>тут после двойки идет ноль, но мдвойку мы только добавили, надо поставить индикатор что машина не может ехать только к одному клиенту а минимум к двум</t>
   </si>
 </sst>
 </file>
@@ -179,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +250,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -278,11 +366,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -296,6 +589,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -748,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -1343,10 +1659,1846 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>2</v>
+      </c>
+      <c r="T1">
+        <v>3</v>
+      </c>
+      <c r="U1">
+        <v>4</v>
+      </c>
+      <c r="V1">
+        <v>5</v>
+      </c>
+      <c r="W1">
+        <v>6</v>
+      </c>
+      <c r="X1">
+        <v>7</v>
+      </c>
+      <c r="Y1">
+        <v>8</v>
+      </c>
+      <c r="Z1">
+        <v>9</v>
+      </c>
+      <c r="AA1">
+        <v>10</v>
+      </c>
+      <c r="AB1">
+        <v>11</v>
+      </c>
+      <c r="AC1">
+        <v>12</v>
+      </c>
+      <c r="AD1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13">
+        <v>8</v>
+      </c>
+      <c r="G2" s="13">
+        <v>7</v>
+      </c>
+      <c r="H2" s="13">
+        <v>6</v>
+      </c>
+      <c r="I2" s="13">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>3</v>
+      </c>
+      <c r="L2" s="13">
+        <v>5</v>
+      </c>
+      <c r="M2" s="13">
+        <v>4</v>
+      </c>
+      <c r="N2" s="13">
+        <v>7</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14">
+        <v>5</v>
+      </c>
+      <c r="S2" s="14">
+        <v>8</v>
+      </c>
+      <c r="T2" s="14">
+        <v>9</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <v>1</v>
+      </c>
+      <c r="W2" s="14">
+        <v>4</v>
+      </c>
+      <c r="X2" s="14">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14">
+        <v>1</v>
+      </c>
+      <c r="S3" s="14">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <v>1</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>2</v>
+      </c>
+      <c r="R7" s="19">
+        <v>3</v>
+      </c>
+      <c r="S7" s="19">
+        <v>4</v>
+      </c>
+      <c r="T7" s="19">
+        <v>5</v>
+      </c>
+      <c r="U7" s="19">
+        <v>6</v>
+      </c>
+      <c r="V7" s="19">
+        <v>7</v>
+      </c>
+      <c r="W7" s="19">
+        <v>8</v>
+      </c>
+      <c r="X7" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="32">
+        <v>1</v>
+      </c>
+      <c r="P8" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>1</v>
+      </c>
+      <c r="R8" s="32">
+        <v>1</v>
+      </c>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32">
+        <v>1</v>
+      </c>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32">
+        <v>1</v>
+      </c>
+      <c r="W8" s="32">
+        <v>1</v>
+      </c>
+      <c r="X8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>0</v>
+      </c>
+      <c r="B12" s="21">
+        <v>5</v>
+      </c>
+      <c r="C12" s="21">
+        <v>8</v>
+      </c>
+      <c r="D12" s="21">
+        <v>7</v>
+      </c>
+      <c r="E12" s="21">
+        <v>9</v>
+      </c>
+      <c r="F12" s="21">
+        <v>3</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>0</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3</v>
+      </c>
+      <c r="E14" s="29">
+        <v>4</v>
+      </c>
+      <c r="F14" s="29">
+        <v>5</v>
+      </c>
+      <c r="G14" s="29">
+        <v>6</v>
+      </c>
+      <c r="H14" s="29">
+        <v>7</v>
+      </c>
+      <c r="I14" s="29">
+        <v>8</v>
+      </c>
+      <c r="J14" s="30">
+        <v>9</v>
+      </c>
+      <c r="L14" s="33">
+        <v>0</v>
+      </c>
+      <c r="M14" s="34">
+        <v>1</v>
+      </c>
+      <c r="N14" s="34">
+        <v>2</v>
+      </c>
+      <c r="O14" s="34">
+        <v>3</v>
+      </c>
+      <c r="P14" s="34">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>5</v>
+      </c>
+      <c r="R14" s="34">
+        <v>6</v>
+      </c>
+      <c r="S14" s="34">
+        <v>7</v>
+      </c>
+      <c r="T14" s="34">
+        <v>8</v>
+      </c>
+      <c r="U14" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>-2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+      <c r="L15" s="23">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
+        <v>1</v>
+      </c>
+      <c r="N15" s="18">
+        <v>2</v>
+      </c>
+      <c r="O15" s="18">
+        <v>1</v>
+      </c>
+      <c r="P15" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>1</v>
+      </c>
+      <c r="R15" s="18">
+        <v>1</v>
+      </c>
+      <c r="S15" s="18">
+        <v>1</v>
+      </c>
+      <c r="T15" s="18">
+        <v>5</v>
+      </c>
+      <c r="U15" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>-1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="L16" s="23">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
+        <v>1</v>
+      </c>
+      <c r="N16" s="18">
+        <v>2</v>
+      </c>
+      <c r="O16" s="18">
+        <v>1</v>
+      </c>
+      <c r="P16" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>0</v>
+      </c>
+      <c r="R16" s="18">
+        <v>1</v>
+      </c>
+      <c r="S16" s="18">
+        <v>1</v>
+      </c>
+      <c r="T16" s="18">
+        <v>5</v>
+      </c>
+      <c r="U16" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>-1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
+        <v>0</v>
+      </c>
+      <c r="M17" s="18">
+        <v>1</v>
+      </c>
+      <c r="N17" s="18">
+        <v>2</v>
+      </c>
+      <c r="O17" s="18">
+        <v>1</v>
+      </c>
+      <c r="P17" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>0</v>
+      </c>
+      <c r="R17" s="18">
+        <v>1</v>
+      </c>
+      <c r="S17" s="18">
+        <v>1</v>
+      </c>
+      <c r="T17" s="18">
+        <v>4</v>
+      </c>
+      <c r="U17" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>-1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="23">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="18">
+        <v>2</v>
+      </c>
+      <c r="O18" s="18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
+        <v>4</v>
+      </c>
+      <c r="U18" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>-1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
+        <v>1</v>
+      </c>
+      <c r="L19" s="23">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <v>1</v>
+      </c>
+      <c r="N19" s="18">
+        <v>2</v>
+      </c>
+      <c r="O19" s="18">
+        <v>1</v>
+      </c>
+      <c r="P19" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>0</v>
+      </c>
+      <c r="R19" s="18">
+        <v>1</v>
+      </c>
+      <c r="S19" s="18">
+        <v>0</v>
+      </c>
+      <c r="T19" s="18">
+        <v>4</v>
+      </c>
+      <c r="U19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>-1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
+        <v>1</v>
+      </c>
+      <c r="L20" s="23">
+        <v>0</v>
+      </c>
+      <c r="M20" s="18">
+        <v>1</v>
+      </c>
+      <c r="N20" s="18">
+        <v>2</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0</v>
+      </c>
+      <c r="P20" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>0</v>
+      </c>
+      <c r="R20" s="18">
+        <v>1</v>
+      </c>
+      <c r="S20" s="18">
+        <v>0</v>
+      </c>
+      <c r="T20" s="18">
+        <v>4</v>
+      </c>
+      <c r="U20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="23">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21" s="18">
+        <v>2</v>
+      </c>
+      <c r="O21" s="18">
+        <v>0</v>
+      </c>
+      <c r="P21" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>0</v>
+      </c>
+      <c r="R21" s="18">
+        <v>1</v>
+      </c>
+      <c r="S21" s="18">
+        <v>0</v>
+      </c>
+      <c r="T21" s="18">
+        <v>4</v>
+      </c>
+      <c r="U21" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>-2</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="23">
+        <v>0</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22" s="18">
+        <v>1</v>
+      </c>
+      <c r="O22" s="18">
+        <v>0</v>
+      </c>
+      <c r="P22" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>0</v>
+      </c>
+      <c r="R22" s="18">
+        <v>1</v>
+      </c>
+      <c r="S22" s="18">
+        <v>0</v>
+      </c>
+      <c r="T22" s="18">
+        <v>4</v>
+      </c>
+      <c r="U22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="24"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="17"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="24"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="17"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="24"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="17"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="24"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="17"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="24"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="17"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="24"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="17"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="24"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="17"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="24"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="17"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="24"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="17"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="24"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="17"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="24"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="17"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="24"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="17"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="24"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="17"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="24"/>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="17"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="27"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+    </row>
+    <row r="65" spans="16:25" x14ac:dyDescent="0.25">
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,23 +5081,32 @@
       <c r="B32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
       <c r="B35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>47</v>
       </c>

--- a/cpeck/AEX.xlsx
+++ b/cpeck/AEX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2520" windowHeight="6840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>bufer1</t>
   </si>
@@ -209,26 +209,39 @@
     <t>рандомные</t>
   </si>
   <si>
-    <t>9 -&gt; 3-&gt;5-&gt;1</t>
-  </si>
-  <si>
     <t>нашли 2 город</t>
   </si>
   <si>
-    <t>тут после двойки идет ноль, но мдвойку мы только добавили, надо поставить индикатор что машина не может ехать только к одному клиенту а минимум к двум</t>
+    <t>numberInCar</t>
+  </si>
+  <si>
+    <t>8 но после нее 0</t>
+  </si>
+  <si>
+    <t>9 -&gt; 3-&gt;5-&gt;1-&gt;4</t>
+  </si>
+  <si>
+    <t>7 не подходит</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="10">
@@ -287,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -571,11 +584,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -612,6 +647,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1661,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="L14" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="13">
         <v>1</v>
@@ -1910,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="W3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="14">
         <v>0</v>
       </c>
       <c r="Y3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="14">
         <v>0</v>
@@ -1944,14 +1984,17 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
       <c r="G4" t="s">
         <v>61</v>
       </c>
       <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -1985,6 +2028,24 @@
       <c r="J5">
         <v>8</v>
       </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2017,8 +2078,23 @@
       <c r="J6">
         <v>8</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>51</v>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -2052,35 +2128,20 @@
       <c r="J7" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>2</v>
-      </c>
-      <c r="R7" s="19">
-        <v>3</v>
-      </c>
-      <c r="S7" s="19">
+      <c r="K7" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="19">
-        <v>5</v>
-      </c>
-      <c r="U7" s="19">
-        <v>6</v>
-      </c>
-      <c r="V7" s="19">
-        <v>7</v>
-      </c>
-      <c r="W7" s="19">
-        <v>8</v>
-      </c>
-      <c r="X7" s="19">
-        <v>9</v>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -2114,31 +2175,20 @@
       <c r="J8" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="32">
-        <v>1</v>
-      </c>
-      <c r="P8" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>1</v>
-      </c>
-      <c r="R8" s="32">
-        <v>1</v>
-      </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32">
-        <v>1</v>
-      </c>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32">
-        <v>1</v>
-      </c>
-      <c r="W8" s="32">
-        <v>1</v>
-      </c>
-      <c r="X8" s="32">
-        <v>1</v>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -2172,6 +2222,18 @@
       <c r="J9">
         <v>2</v>
       </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2204,14 +2266,44 @@
       <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
         <v>64</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>50</v>
       </c>
+      <c r="B11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
@@ -2241,10 +2333,18 @@
       <c r="I12" s="21">
         <v>2</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="J12" s="21">
+        <v>8</v>
+      </c>
+      <c r="K12" s="21">
+        <v>4</v>
+      </c>
+      <c r="L12" s="21">
+        <v>6</v>
+      </c>
+      <c r="M12" s="21">
+        <v>0</v>
+      </c>
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2691,7 +2791,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B21" s="12">
         <v>1</v>
@@ -2844,72 +2944,192 @@
       <c r="J23" s="17">
         <v>0</v>
       </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="24"/>
+      <c r="L23" s="23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="18">
+        <v>0</v>
+      </c>
+      <c r="N23" s="18">
+        <v>1</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0</v>
+      </c>
+      <c r="P23" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>0</v>
+      </c>
+      <c r="R23" s="18">
+        <v>1</v>
+      </c>
+      <c r="S23" s="18">
+        <v>0</v>
+      </c>
+      <c r="T23" s="18">
+        <v>3</v>
+      </c>
+      <c r="U23" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="17"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="24"/>
+      <c r="A24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="23">
+        <v>0</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
+      <c r="N24" s="18">
+        <v>1</v>
+      </c>
+      <c r="O24" s="18">
+        <v>0</v>
+      </c>
+      <c r="P24" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>0</v>
+      </c>
+      <c r="R24" s="18">
+        <v>1</v>
+      </c>
+      <c r="S24" s="18">
+        <v>0</v>
+      </c>
+      <c r="T24" s="18">
+        <v>3</v>
+      </c>
+      <c r="U24" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="17"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="24"/>
+      <c r="A25" s="16">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+      <c r="L25" s="23">
+        <v>0</v>
+      </c>
+      <c r="M25" s="18">
+        <v>0</v>
+      </c>
+      <c r="N25" s="18">
+        <v>1</v>
+      </c>
+      <c r="O25" s="18">
+        <v>0</v>
+      </c>
+      <c r="P25" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>0</v>
+      </c>
+      <c r="R25" s="18">
+        <v>0</v>
+      </c>
+      <c r="S25" s="18">
+        <v>0</v>
+      </c>
+      <c r="T25" s="18">
+        <v>3</v>
+      </c>
+      <c r="U25" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="17"/>
+      <c r="A26" s="16">
+        <v>-1</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
       <c r="L26" s="23"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
@@ -2922,16 +3142,36 @@
       <c r="U26" s="24"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="17"/>
+      <c r="A27" s="37">
+        <v>0</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>1</v>
+      </c>
+      <c r="J27" s="38">
+        <v>0</v>
+      </c>
       <c r="L27" s="23"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
@@ -2944,16 +3184,36 @@
       <c r="U27" s="24"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="17"/>
+      <c r="A28" s="16">
+        <v>-2</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
       <c r="L28" s="23"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
@@ -3186,6 +3446,9 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="17"/>
+      <c r="K39" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
@@ -3198,6 +3461,36 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="17"/>
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="19">
+        <v>1</v>
+      </c>
+      <c r="M40" s="19">
+        <v>2</v>
+      </c>
+      <c r="N40" s="19">
+        <v>3</v>
+      </c>
+      <c r="O40" s="19">
+        <v>4</v>
+      </c>
+      <c r="P40" s="19">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>6</v>
+      </c>
+      <c r="R40" s="19">
+        <v>7</v>
+      </c>
+      <c r="S40" s="19">
+        <v>8</v>
+      </c>
+      <c r="T40" s="19">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
@@ -3210,6 +3503,36 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="17"/>
+      <c r="K41" s="32">
+        <v>1</v>
+      </c>
+      <c r="L41" s="32">
+        <v>1</v>
+      </c>
+      <c r="M41" s="32">
+        <v>1</v>
+      </c>
+      <c r="N41" s="32">
+        <v>1</v>
+      </c>
+      <c r="O41" s="32">
+        <v>1</v>
+      </c>
+      <c r="P41" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="32">
+        <v>1</v>
+      </c>
+      <c r="R41" s="32">
+        <v>1</v>
+      </c>
+      <c r="S41" s="32">
+        <v>1</v>
+      </c>
+      <c r="T41" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
